--- a/docs/Raw agents summary.xlsx
+++ b/docs/Raw agents summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Hidden layer = 40 neurons</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>Raw-GnuBg-40-relu</t>
+  </si>
+  <si>
+    <t>Raw-Sutton-40-lrelu</t>
+  </si>
+  <si>
+    <t>Lrelu</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro89-40-lrelu</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro92-40-lrelu</t>
+  </si>
+  <si>
+    <t>Raw-GnuBg-40-lrelu</t>
+  </si>
+  <si>
+    <t>Raw-Sutton-40-elu</t>
+  </si>
+  <si>
+    <t>Elu</t>
   </si>
 </sst>
 </file>
@@ -167,8 +188,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:I15" totalsRowShown="0">
-  <autoFilter ref="A3:I15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:I23" totalsRowShown="0">
+  <autoFilter ref="A3:I23"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Agent Name"/>
     <tableColumn id="2" name="Activation"/>
@@ -481,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,6 +901,157 @@
       </c>
       <c r="I15">
         <v>1.4070138948036499E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>319</v>
+      </c>
+      <c r="E16">
+        <v>1.0033394684030699E-2</v>
+      </c>
+      <c r="F16">
+        <v>352</v>
+      </c>
+      <c r="G16">
+        <v>3.11701877751514E-2</v>
+      </c>
+      <c r="H16">
+        <v>308</v>
+      </c>
+      <c r="I16">
+        <v>1.78892986171405E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>165</v>
+      </c>
+      <c r="E17">
+        <v>8.5945415559447805E-3</v>
+      </c>
+      <c r="F17">
+        <v>187</v>
+      </c>
+      <c r="G17">
+        <v>1.44900887994673E-2</v>
+      </c>
+      <c r="H17">
+        <v>165</v>
+      </c>
+      <c r="I17">
+        <v>1.1670147232056199E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>165</v>
+      </c>
+      <c r="E18">
+        <v>9.1649879250330201E-3</v>
+      </c>
+      <c r="F18">
+        <v>254</v>
+      </c>
+      <c r="G18">
+        <v>1.4580407029913801E-2</v>
+      </c>
+      <c r="H18">
+        <v>198</v>
+      </c>
+      <c r="I18">
+        <v>1.38817468289366E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>220</v>
+      </c>
+      <c r="E19">
+        <v>9.19357906345529E-3</v>
+      </c>
+      <c r="F19">
+        <v>253</v>
+      </c>
+      <c r="G19">
+        <v>1.4600829719728E-2</v>
+      </c>
+      <c r="H19">
+        <v>143</v>
+      </c>
+      <c r="I19">
+        <v>1.7127940607985E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Raw agents summary.xlsx
+++ b/docs/Raw agents summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\MultiGammonJava\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Scala\MultiGammonJava\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Hidden layer = 40 neurons</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Elu</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro89-40-elu</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro92-40-elu</t>
+  </si>
+  <si>
+    <t>Raw-GnuBg-40-elu</t>
   </si>
 </sst>
 </file>
@@ -504,29 +513,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -555,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -584,7 +593,7 @@
         <v>1.4935889725725E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -613,7 +622,7 @@
         <v>1.90955529611498E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -642,7 +651,7 @@
         <v>1.7453306426881698E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -671,7 +680,7 @@
         <v>1.88776008873856E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -700,7 +709,7 @@
         <v>1.4361802392617E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -729,7 +738,7 @@
         <v>1.6881598691412598E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -758,7 +767,7 @@
         <v>1.7262174109777099E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -787,7 +796,7 @@
         <v>1.8430530291911398E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -816,7 +825,7 @@
         <v>6.4010238159394797E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -845,7 +854,7 @@
         <v>1.2420331204860399E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -874,7 +883,7 @@
         <v>1.6273505539285901E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -903,7 +912,7 @@
         <v>1.4070138948036499E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -932,7 +941,7 @@
         <v>1.78892986171405E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -961,7 +970,7 @@
         <v>1.1670147232056199E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -990,7 +999,7 @@
         <v>1.38817468289366E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>1.7127940607985E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1029,29 +1038,110 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>286</v>
+      </c>
+      <c r="E20">
+        <v>1.00073328595633E-2</v>
+      </c>
+      <c r="F20">
+        <v>297</v>
+      </c>
+      <c r="G20">
+        <v>1.86368134262134E-2</v>
+      </c>
+      <c r="H20">
+        <v>352</v>
+      </c>
+      <c r="I20">
+        <v>0.104700894282585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>209</v>
+      </c>
+      <c r="E21">
+        <v>9.3795595155883801E-3</v>
+      </c>
+      <c r="F21">
+        <v>187</v>
+      </c>
+      <c r="G21">
+        <v>1.5251180413586999E-2</v>
+      </c>
+      <c r="H21">
+        <v>187</v>
+      </c>
+      <c r="I21">
+        <v>1.5201896789540899E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>264</v>
+      </c>
+      <c r="E22">
+        <v>1.2175463227969301E-2</v>
+      </c>
+      <c r="F22">
+        <v>341</v>
+      </c>
+      <c r="G22">
+        <v>1.65533295563834E-2</v>
+      </c>
+      <c r="H22">
+        <v>154</v>
+      </c>
+      <c r="I22">
+        <v>9.8575779966210298E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
+      </c>
+      <c r="D23">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>1.0999637571737501E-2</v>
+      </c>
+      <c r="F23">
+        <v>165</v>
+      </c>
+      <c r="G23">
+        <v>1.6480744617698599E-2</v>
+      </c>
+      <c r="H23">
+        <v>264</v>
+      </c>
+      <c r="I23">
+        <v>1.55228924779747E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1161,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Raw agents summary.xlsx
+++ b/docs/Raw agents summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Hidden layer = 40 neurons</t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>Raw-GnuBg-40-elu</t>
+  </si>
+  <si>
+    <t>Raw-Sutton-40-softplus</t>
+  </si>
+  <si>
+    <t>Softplus</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro89-40-softplus</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro92-40-softplus</t>
+  </si>
+  <si>
+    <t>Raw-Gnubg-40-softplus</t>
   </si>
 </sst>
 </file>
@@ -197,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:I23" totalsRowShown="0">
-  <autoFilter ref="A3:I23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:I27" totalsRowShown="0">
+  <autoFilter ref="A3:I27"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Agent Name"/>
     <tableColumn id="2" name="Activation"/>
@@ -511,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,6 +1157,122 @@
       </c>
       <c r="I23">
         <v>1.55228924779747E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>748</v>
+      </c>
+      <c r="E24">
+        <v>9.8406430296622705E-3</v>
+      </c>
+      <c r="F24">
+        <v>429</v>
+      </c>
+      <c r="G24">
+        <v>1.6803678774162601E-2</v>
+      </c>
+      <c r="H24">
+        <v>649</v>
+      </c>
+      <c r="I24">
+        <v>1.21457200121468E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>363</v>
+      </c>
+      <c r="E25">
+        <v>8.0899133900276896E-3</v>
+      </c>
+      <c r="F25">
+        <v>682</v>
+      </c>
+      <c r="G25">
+        <v>1.6031522042884699E-2</v>
+      </c>
+      <c r="H25">
+        <v>430</v>
+      </c>
+      <c r="I25">
+        <v>8.3975748947928298E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>520</v>
+      </c>
+      <c r="E26">
+        <v>1.51312580686098E-2</v>
+      </c>
+      <c r="F26">
+        <v>458</v>
+      </c>
+      <c r="G26">
+        <v>1.65629820613407E-2</v>
+      </c>
+      <c r="H26">
+        <v>330</v>
+      </c>
+      <c r="I26">
+        <v>2.1340615859916999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>462</v>
+      </c>
+      <c r="E27">
+        <v>7.2342079696792001E-3</v>
+      </c>
+      <c r="F27">
+        <v>605</v>
+      </c>
+      <c r="G27">
+        <v>2.2361723315266799E-2</v>
+      </c>
+      <c r="H27">
+        <v>275</v>
+      </c>
+      <c r="I27">
+        <v>1.4354779071938901E-2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Raw agents summary.xlsx
+++ b/docs/Raw agents summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>Hidden layer = 40 neurons</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>Raw-Gnubg-40-softplus</t>
+  </si>
+  <si>
+    <t>Elliot</t>
+  </si>
+  <si>
+    <t>Raw-Sutton-40-elliot</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro89-40-elliot</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro92-40-elliot</t>
+  </si>
+  <si>
+    <t>Raw-Gnubg-40-elliot</t>
+  </si>
+  <si>
+    <t>Raw-Sutton-40-gaussian</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
   </si>
 </sst>
 </file>
@@ -212,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:I27" totalsRowShown="0">
-  <autoFilter ref="A3:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:I35" totalsRowShown="0">
+  <autoFilter ref="A3:I35"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Agent Name"/>
     <tableColumn id="2" name="Activation"/>
@@ -526,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,6 +1294,157 @@
       </c>
       <c r="I27">
         <v>1.4354779071938901E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>165</v>
+      </c>
+      <c r="E28">
+        <v>8.8342000241027601E-3</v>
+      </c>
+      <c r="F28">
+        <v>231</v>
+      </c>
+      <c r="G28">
+        <v>1.6164361425998398E-2</v>
+      </c>
+      <c r="H28">
+        <v>154</v>
+      </c>
+      <c r="I28">
+        <v>2.0410544445768099E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>110</v>
+      </c>
+      <c r="E29">
+        <v>9.1947238187154896E-3</v>
+      </c>
+      <c r="F29">
+        <v>110</v>
+      </c>
+      <c r="G29">
+        <v>1.7402067696604701E-2</v>
+      </c>
+      <c r="H29">
+        <v>88</v>
+      </c>
+      <c r="I29">
+        <v>1.53103674961207E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>165</v>
+      </c>
+      <c r="E30">
+        <v>8.8280142436350899E-3</v>
+      </c>
+      <c r="F30">
+        <v>132</v>
+      </c>
+      <c r="G30">
+        <v>1.73341698218735E-2</v>
+      </c>
+      <c r="H30">
+        <v>132</v>
+      </c>
+      <c r="I30">
+        <v>1.52602878673963E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>9.5193671086557796E-3</v>
+      </c>
+      <c r="F31">
+        <v>165</v>
+      </c>
+      <c r="G31">
+        <v>1.7271866632068901E-2</v>
+      </c>
+      <c r="H31">
+        <v>88</v>
+      </c>
+      <c r="I31">
+        <v>1.5029308952941699E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Raw agents summary.xlsx
+++ b/docs/Raw agents summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>Hidden layer = 40 neurons</t>
   </si>
@@ -174,10 +174,19 @@
     <t>Raw-Gnubg-40-elliot</t>
   </si>
   <si>
-    <t>Raw-Sutton-40-gaussian</t>
-  </si>
-  <si>
-    <t>Gaussian</t>
+    <t>Raw-Sutton-40-log</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro89-40-log</t>
+  </si>
+  <si>
+    <t>Raw-Tesauro92-40-log</t>
+  </si>
+  <si>
+    <t>Raw-GnuBg-40-log</t>
   </si>
 </sst>
 </file>
@@ -549,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,29 +1431,110 @@
       <c r="C32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>440</v>
+      </c>
+      <c r="E32">
+        <v>9.9526041111960197E-3</v>
+      </c>
+      <c r="F32">
+        <v>462</v>
+      </c>
+      <c r="G32">
+        <v>1.5462060712335199E-2</v>
+      </c>
+      <c r="H32">
+        <v>330</v>
+      </c>
+      <c r="I32">
+        <v>1.55995554555449E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
       <c r="B33" t="s">
         <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>231</v>
+      </c>
+      <c r="E33">
+        <v>8.2684815023966497E-3</v>
+      </c>
+      <c r="F33">
+        <v>242</v>
+      </c>
+      <c r="G33">
+        <v>1.5983840395989699E-2</v>
+      </c>
+      <c r="H33">
+        <v>209</v>
+      </c>
+      <c r="I33">
+        <v>1.4731647547531999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>297</v>
+      </c>
+      <c r="E34">
+        <v>8.2418964125962994E-3</v>
+      </c>
+      <c r="F34">
+        <v>308</v>
+      </c>
+      <c r="G34">
+        <v>1.5832932595531299E-2</v>
+      </c>
+      <c r="H34">
+        <v>308</v>
+      </c>
+      <c r="I34">
+        <v>1.36104454281211E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
       <c r="B35" t="s">
         <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
+      </c>
+      <c r="D35">
+        <v>220</v>
+      </c>
+      <c r="E35">
+        <v>9.0253990804634102E-3</v>
+      </c>
+      <c r="F35">
+        <v>264</v>
+      </c>
+      <c r="G35">
+        <v>1.6487361162506101E-2</v>
+      </c>
+      <c r="H35">
+        <v>198</v>
+      </c>
+      <c r="I35">
+        <v>1.31977617788991E-2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Raw agents summary.xlsx
+++ b/docs/Raw agents summary.xlsx
@@ -2,20 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Scala\MultiGammonJava\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="31" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
   <si>
     <t>Hidden layer = 40 neurons</t>
   </si>
@@ -187,12 +191,39 @@
   </si>
   <si>
     <t>Raw-GnuBg-40-log</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Average of Race Error</t>
+  </si>
+  <si>
+    <t>Average of Crashed Error</t>
+  </si>
+  <si>
+    <t>Average of Contact Error</t>
+  </si>
+  <si>
+    <t>Average of Contact Epochs</t>
+  </si>
+  <si>
+    <t>Average of Crashed Epochs</t>
+  </si>
+  <si>
+    <t>Average of Race Epochs</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,8 +253,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,6 +276,3880 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Raw agents summary.xlsx]Sheet3!PivotTable12</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Contact Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GnuBg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sutton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tesauro89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tesauro92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.290495836780488E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8756752672722898E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1388879638618324E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0692370414581955E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF40-4841-8BF8-91E44101DC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Crashed Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GnuBg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sutton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tesauro89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tesauro92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7581844659995249E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8930408272020423E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6008967247411337E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6516382467618926E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF40-4841-8BF8-91E44101DC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Race Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GnuBg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sutton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tesauro89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tesauro92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5826369127134112E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0420236768732222E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4213639602183178E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5617457507117089E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF40-4841-8BF8-91E44101DC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="417381056"/>
+        <c:axId val="417378432"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Contact Epochs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GnuBg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sutton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tesauro89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tesauro92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>246.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF40-4841-8BF8-91E44101DC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Crashed Epochs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GnuBg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sutton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tesauro89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tesauro92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>272.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>335.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AF40-4841-8BF8-91E44101DC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Race Epochs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GnuBg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sutton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tesauro89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tesauro92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AF40-4841-8BF8-91E44101DC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="423653736"/>
+        <c:axId val="423655376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="417381056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417378432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417378432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417381056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423655376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423653736"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="423653736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="423655376"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Raw agents summary.xlsx]Sheet4!PivotTable13</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Contact Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Elliot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Log</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lrelu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Softplus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.0940762987772802E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.064049829371462E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8720952766630952E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2466258071159484E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5386085649197001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0912593644240225E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0074005614494739E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6163554650675279E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B09-4B9E-9B9D-3563DD596EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Crashed Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Elliot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Log</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lrelu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Softplus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7043116394136373E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6730517003470599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5941548716590575E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8710378331065123E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5376341700867826E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8483403839138622E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.79399765484137E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7849922760409049E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B09-4B9E-9B9D-3563DD596EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Race Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Elliot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Log</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lrelu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Softplus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6502627190556698E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5550106737278158E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4284852552524275E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5142283321529577E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.229124987703057E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7590587500285526E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4059672459698882E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6734026371429525E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B09-4B9E-9B9D-3563DD596EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="415944264"/>
+        <c:axId val="425540456"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Contact Epochs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Elliot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Log</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lrelu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Softplus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>412.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>523.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B09-4B9E-9B9D-3563DD596EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Crashed Epochs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Elliot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Log</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lrelu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Softplus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>503.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>543.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1B09-4B9E-9B9D-3563DD596EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Race Epochs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Elliot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Log</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lrelu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Softplus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>371.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1B09-4B9E-9B9D-3563DD596EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="421594120"/>
+        <c:axId val="421592808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415944264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425540456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="425540456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415944264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="421592808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421594120"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="421594120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="421592808"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1328737</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B89C545-1019-4682-B2EA-D0B03CDAA607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805AD237-BC6B-4548-8D54-D15B2449184F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="oleksii.koshterek" refreshedDate="42881.545981365744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Agent Name" numFmtId="0">
+      <sharedItems count="32">
+        <s v="Raw-Sutton-40-sigmoid"/>
+        <s v="Raw-Tesauro89-40-sigmoid"/>
+        <s v="Raw-Tesauro92-40-sigmoid"/>
+        <s v="Raw-Gnubg-40-sigmoid"/>
+        <s v="Raw-Sutton-40-tanh"/>
+        <s v="Raw-Tesauro89-40-tanh"/>
+        <s v="Raw-Tesauro92-40-tanh"/>
+        <s v="Raw-Gnubg-40-tanh"/>
+        <s v="Raw-Sutton-40-relu"/>
+        <s v="Raw-Tesauro89-40-relu"/>
+        <s v="Raw-Tesauro92-40-relu"/>
+        <s v="Raw-GnuBg-40-relu"/>
+        <s v="Raw-Sutton-40-lrelu"/>
+        <s v="Raw-Tesauro89-40-lrelu"/>
+        <s v="Raw-Tesauro92-40-lrelu"/>
+        <s v="Raw-GnuBg-40-lrelu"/>
+        <s v="Raw-Sutton-40-elu"/>
+        <s v="Raw-Tesauro89-40-elu"/>
+        <s v="Raw-Tesauro92-40-elu"/>
+        <s v="Raw-GnuBg-40-elu"/>
+        <s v="Raw-Sutton-40-softplus"/>
+        <s v="Raw-Tesauro89-40-softplus"/>
+        <s v="Raw-Tesauro92-40-softplus"/>
+        <s v="Raw-Gnubg-40-softplus"/>
+        <s v="Raw-Sutton-40-elliot"/>
+        <s v="Raw-Tesauro89-40-elliot"/>
+        <s v="Raw-Tesauro92-40-elliot"/>
+        <s v="Raw-Gnubg-40-elliot"/>
+        <s v="Raw-Sutton-40-log"/>
+        <s v="Raw-Tesauro89-40-log"/>
+        <s v="Raw-Tesauro92-40-log"/>
+        <s v="Raw-GnuBg-40-log"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Activation" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Sigmoid"/>
+        <s v="Tanh"/>
+        <s v="Relu"/>
+        <s v="Lrelu"/>
+        <s v="Elu"/>
+        <s v="Softplus"/>
+        <s v="Elliot"/>
+        <s v="Log"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Codec" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Sutton"/>
+        <s v="Tesauro89"/>
+        <s v="Tesauro92"/>
+        <s v="GnuBg"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Contact Epochs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="88" maxValue="748"/>
+    </cacheField>
+    <cacheField name="Contact Error" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.2342079696792001E-3" maxValue="1.51312580686098E-2"/>
+    </cacheField>
+    <cacheField name="Crashed Epochs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="88" maxValue="682"/>
+    </cacheField>
+    <cacheField name="Crashed Error" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.32602973868793E-2" maxValue="3.11701877751514E-2"/>
+    </cacheField>
+    <cacheField name="Race Epochs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="77" maxValue="649"/>
+    </cacheField>
+    <cacheField name="Race Error" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.4010238159394797E-3" maxValue="6.1618059684976002E-2"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="297"/>
+    <n v="1.12546398418535E-2"/>
+    <n v="462"/>
+    <n v="1.7861445421354899E-2"/>
+    <n v="495"/>
+    <n v="1.4935889725725E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="462"/>
+    <n v="1.03164076019336E-2"/>
+    <n v="671"/>
+    <n v="1.7121587088632002E-2"/>
+    <n v="319"/>
+    <n v="1.90955529611498E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="484"/>
+    <n v="1.12121021241261E-2"/>
+    <n v="440"/>
+    <n v="1.8757651786372599E-2"/>
+    <n v="385"/>
+    <n v="1.7453306426881698E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="407"/>
+    <n v="1.08672250090477E-2"/>
+    <n v="440"/>
+    <n v="2.0192931060194999E-2"/>
+    <n v="286"/>
+    <n v="1.88776008873856E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="231"/>
+    <n v="9.9760328395677202E-3"/>
+    <n v="132"/>
+    <n v="1.6928241445869501E-2"/>
+    <n v="253"/>
+    <n v="1.4361802392617E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="88"/>
+    <n v="9.6610423136281095E-3"/>
+    <n v="88"/>
+    <n v="1.7488799882108198E-2"/>
+    <n v="77"/>
+    <n v="1.6881598691412598E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="165"/>
+    <n v="9.5832701043815204E-3"/>
+    <n v="132"/>
+    <n v="1.9249289502656801E-2"/>
+    <n v="88"/>
+    <n v="1.7262174109777099E-2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="143"/>
+    <n v="9.2450766026927599E-3"/>
+    <n v="110"/>
+    <n v="1.7733360211001699E-2"/>
+    <n v="99"/>
+    <n v="1.8430530291911398E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="462"/>
+    <n v="9.10655474820205E-3"/>
+    <n v="318"/>
+    <n v="1.8416477195077999E-2"/>
+    <n v="297"/>
+    <n v="6.4010238159394797E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="176"/>
+    <n v="9.6064340126599708E-3"/>
+    <n v="198"/>
+    <n v="1.43026516600171E-2"/>
+    <n v="209"/>
+    <n v="1.2420331204860399E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="484"/>
+    <n v="1.1201971210304499E-2"/>
+    <n v="264"/>
+    <n v="1.32602973868793E-2"/>
+    <n v="165"/>
+    <n v="1.6273505539285901E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="198"/>
+    <n v="8.2394742885122801E-3"/>
+    <n v="176"/>
+    <n v="1.55259405614969E-2"/>
+    <n v="253"/>
+    <n v="1.4070138948036499E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="319"/>
+    <n v="1.0033394684030699E-2"/>
+    <n v="352"/>
+    <n v="3.11701877751514E-2"/>
+    <n v="308"/>
+    <n v="1.78892986171405E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="165"/>
+    <n v="8.5945415559447805E-3"/>
+    <n v="187"/>
+    <n v="1.44900887994673E-2"/>
+    <n v="165"/>
+    <n v="1.1670147232056199E-2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="165"/>
+    <n v="9.1649879250330201E-3"/>
+    <n v="254"/>
+    <n v="1.4580407029913801E-2"/>
+    <n v="198"/>
+    <n v="1.38817468289366E-2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="220"/>
+    <n v="9.19357906345529E-3"/>
+    <n v="253"/>
+    <n v="1.4600829719728E-2"/>
+    <n v="143"/>
+    <n v="1.7127940607985E-2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="286"/>
+    <n v="1.00073328595633E-2"/>
+    <n v="297"/>
+    <n v="1.86368134262134E-2"/>
+    <n v="374"/>
+    <n v="6.1618059684976002E-2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="209"/>
+    <n v="9.3795595155883801E-3"/>
+    <n v="187"/>
+    <n v="1.5251180413586999E-2"/>
+    <n v="187"/>
+    <n v="1.5201896789540899E-2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="264"/>
+    <n v="1.2175463227969301E-2"/>
+    <n v="341"/>
+    <n v="1.65533295563834E-2"/>
+    <n v="154"/>
+    <n v="9.8575779966210298E-3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="209"/>
+    <n v="1.0999637571737501E-2"/>
+    <n v="165"/>
+    <n v="1.6480744617698599E-2"/>
+    <n v="264"/>
+    <n v="1.55228924779747E-2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="748"/>
+    <n v="9.8406430296622705E-3"/>
+    <n v="429"/>
+    <n v="1.6803678774162601E-2"/>
+    <n v="649"/>
+    <n v="1.21457200121468E-2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="363"/>
+    <n v="8.0899133900276896E-3"/>
+    <n v="682"/>
+    <n v="1.6031522042884699E-2"/>
+    <n v="430"/>
+    <n v="8.3975748947928298E-3"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="520"/>
+    <n v="1.51312580686098E-2"/>
+    <n v="458"/>
+    <n v="1.65629820613407E-2"/>
+    <n v="330"/>
+    <n v="2.1340615859916999E-2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="462"/>
+    <n v="7.2342079696792001E-3"/>
+    <n v="605"/>
+    <n v="2.2361723315266799E-2"/>
+    <n v="275"/>
+    <n v="1.4354779071938901E-2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="165"/>
+    <n v="8.8342000241027601E-3"/>
+    <n v="231"/>
+    <n v="1.6164361425998398E-2"/>
+    <n v="154"/>
+    <n v="2.0410544445768099E-2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="110"/>
+    <n v="9.1947238187154896E-3"/>
+    <n v="110"/>
+    <n v="1.7402067696604701E-2"/>
+    <n v="88"/>
+    <n v="1.53103674961207E-2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="165"/>
+    <n v="8.8280142436350899E-3"/>
+    <n v="132"/>
+    <n v="1.73341698218735E-2"/>
+    <n v="132"/>
+    <n v="1.52602878673963E-2"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="110"/>
+    <n v="9.5193671086557796E-3"/>
+    <n v="165"/>
+    <n v="1.7271866632068901E-2"/>
+    <n v="88"/>
+    <n v="1.5029308952941699E-2"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="440"/>
+    <n v="9.9526041111960197E-3"/>
+    <n v="462"/>
+    <n v="1.5462060712335199E-2"/>
+    <n v="330"/>
+    <n v="1.55995554555449E-2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="231"/>
+    <n v="8.2684815023966497E-3"/>
+    <n v="242"/>
+    <n v="1.5983840395989699E-2"/>
+    <n v="209"/>
+    <n v="1.4731647547531999E-2"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="297"/>
+    <n v="8.2418964125962994E-3"/>
+    <n v="308"/>
+    <n v="1.5832932595531299E-2"/>
+    <n v="308"/>
+    <n v="1.36104454281211E-2"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="220"/>
+    <n v="9.0253990804634102E-3"/>
+    <n v="264"/>
+    <n v="1.6487361162506101E-2"/>
+    <n v="198"/>
+    <n v="1.31977617788991E-2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:G6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="33">
+        <item x="27"/>
+        <item x="19"/>
+        <item x="31"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="25"/>
+        <item x="17"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="5"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="30"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField name="Average of Contact Error" fld="4" subtotal="average" baseField="2" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Crashed Error" fld="6" subtotal="average" baseField="2" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Race Error" fld="8" subtotal="average" baseField="2" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Contact Epochs" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of Crashed Epochs" fld="5" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of Race Epochs" fld="7" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="33">
+        <item x="27"/>
+        <item x="19"/>
+        <item x="31"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="25"/>
+        <item x="17"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="5"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="30"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item sd="0" x="6"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField name="Average of Contact Error" fld="4" subtotal="average" baseField="2" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Crashed Error" fld="6" subtotal="average" baseField="2" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Race Error" fld="8" subtotal="average" baseField="2" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Contact Epochs" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of Crashed Epochs" fld="5" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of Race Epochs" fld="7" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,9 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1096,10 +5005,10 @@
         <v>1.86368134262134E-2</v>
       </c>
       <c r="H20">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="I20">
-        <v>0.104700894282585</v>
+        <v>6.1618059684976002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1548,14 +5457,420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9.290495836780488E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.7581844659995249E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.5826369127134112E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>246.125</v>
+      </c>
+      <c r="F2" s="3">
+        <v>272.25</v>
+      </c>
+      <c r="G2" s="3">
+        <v>200.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9.8756752672722898E-3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.8930408272020423E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.0420236768732222E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>368.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>335.375</v>
+      </c>
+      <c r="G3" s="3">
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9.1388879638618324E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.6008967247411337E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.4213639602183178E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>225.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>295.625</v>
+      </c>
+      <c r="G4" s="3">
+        <v>210.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.0692370414581955E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.6516382467618926E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5617457507117089E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>318</v>
+      </c>
+      <c r="F5" s="3">
+        <v>291.125</v>
+      </c>
+      <c r="G5" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9.7493573706241426E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.7259400661761484E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.6519425751291651E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>289.53125</v>
+      </c>
+      <c r="F6" s="3">
+        <v>298.59375</v>
+      </c>
+      <c r="G6" s="3">
+        <v>247.1875</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9.0940762987772802E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.7043116394136373E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.6502627190556698E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>137.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.064049829371462E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.6730517003470599E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.5550106737278158E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>242</v>
+      </c>
+      <c r="F3" s="3">
+        <v>247.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>244.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8.8720952766630952E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.5941548716590575E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.4284852552524275E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>297</v>
+      </c>
+      <c r="F4" s="3">
+        <v>319</v>
+      </c>
+      <c r="G4" s="3">
+        <v>261.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>9.2466258071159484E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.8710378331065123E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5142283321529577E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>217.25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>261.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>203.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9.5386085649197001E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.5376341700867826E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.229124987703057E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>330</v>
+      </c>
+      <c r="F6" s="3">
+        <v>239</v>
+      </c>
+      <c r="G6" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.0912593644240225E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.8483403839138622E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.7590587500285526E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>412.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>503.25</v>
+      </c>
+      <c r="G7" s="3">
+        <v>371.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.0074005614494739E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.79399765484137E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.4059672459698882E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>523.25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>543.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9.6163554650675279E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.7849922760409049E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6734026371429525E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>156.75</v>
+      </c>
+      <c r="F9" s="3">
+        <v>115.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>129.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.7493573706241426E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.7259400661761484E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.6519425751291651E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>289.53125</v>
+      </c>
+      <c r="F10" s="3">
+        <v>298.59375</v>
+      </c>
+      <c r="G10" s="3">
+        <v>247.1875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/Raw agents summary.xlsx
+++ b/docs/Raw agents summary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -446,16 +446,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.290495836780488E-3</c:v>
+                  <c:v>1.008522175134504E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8756752672722898E-3</c:v>
+                  <c:v>1.0012983416337993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1388879638618324E-3</c:v>
+                  <c:v>9.2509229689168998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0692370414581955E-2</c:v>
+                  <c:v>9.7322381325407794E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,16 +517,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7581844659995249E-2</c:v>
+                  <c:v>1.6564114632365162E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8930408272020423E-2</c:v>
+                  <c:v>1.9101577517300648E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6008967247411337E-2</c:v>
+                  <c:v>1.5961732466928325E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6516382467618926E-2</c:v>
+                  <c:v>2.4914479919170673E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,16 +588,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5826369127134112E-2</c:v>
+                  <c:v>1.6923747196504288E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0420236768732222E-2</c:v>
+                  <c:v>2.0652819751252757E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4213639602183178E-2</c:v>
+                  <c:v>1.5706313630626037E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5617457507117089E-2</c:v>
+                  <c:v>1.4253525783619565E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,16 +676,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>246.125</c:v>
+                  <c:v>235.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>368.5</c:v>
+                  <c:v>380.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225.5</c:v>
+                  <c:v>255.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>318</c:v>
+                  <c:v>309.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,16 +750,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>272.25</c:v>
+                  <c:v>254.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335.375</c:v>
+                  <c:v>368.375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>295.625</c:v>
+                  <c:v>266.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>291.125</c:v>
+                  <c:v>265.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,16 +824,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>200.75</c:v>
+                  <c:v>204.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>357.5</c:v>
+                  <c:v>347.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.5</c:v>
+                  <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,6 +1019,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="423655376"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1314,7 +1315,7 @@
                   <c:v>1.0912593644240225E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0074005614494739E-2</c:v>
+                  <c:v>1.0241879187783033E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.6163554650675279E-3</c:v>
@@ -1409,7 +1410,7 @@
                   <c:v>1.8483403839138622E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.79399765484137E-2</c:v>
+                  <c:v>3.2948580325851448E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.7849922760409049E-2</c:v>
@@ -1504,7 +1505,7 @@
                   <c:v>1.7590587500285526E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4059672459698882E-2</c:v>
+                  <c:v>1.6977079173370976E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.6734026371429525E-2</c:v>
@@ -1617,7 +1618,7 @@
                   <c:v>412.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>523.25</c:v>
+                  <c:v>569.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>156.75</c:v>
@@ -1715,7 +1716,7 @@
                   <c:v>503.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>543.5</c:v>
+                  <c:v>464.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>115.5</c:v>
@@ -1813,7 +1814,7 @@
                   <c:v>371.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>421</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>129.25</c:v>
@@ -2002,6 +2003,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="421592808"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3281,7 +3283,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="oleksii.koshterek" refreshedDate="42881.545981365744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="oleksii.koshterek" refreshedDate="42890.642087962966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -3343,19 +3345,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Contact Epochs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="88" maxValue="748"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="88" maxValue="847"/>
     </cacheField>
     <cacheField name="Contact Error" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.2342079696792001E-3" maxValue="1.51312580686098E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.4501998122804003E-3" maxValue="1.3592015286195599E-2"/>
     </cacheField>
     <cacheField name="Crashed Epochs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="88" maxValue="682"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="88" maxValue="693"/>
     </cacheField>
     <cacheField name="Crashed Error" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.32602973868793E-2" maxValue="3.11701877751514E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.32602973868793E-2" maxValue="8.3747761673754695E-2"/>
     </cacheField>
     <cacheField name="Race Epochs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="77" maxValue="649"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="77" maxValue="682"/>
     </cacheField>
     <cacheField name="Race Error" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.4010238159394797E-3" maxValue="6.1618059684976002E-2"/>
@@ -3595,45 +3597,45 @@
     <x v="20"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="748"/>
-    <n v="9.8406430296622705E-3"/>
-    <n v="429"/>
-    <n v="1.6803678774162601E-2"/>
-    <n v="649"/>
-    <n v="1.21457200121468E-2"/>
+    <n v="847"/>
+    <n v="1.0939108222187899E-2"/>
+    <n v="693"/>
+    <n v="1.8173032736404401E-2"/>
+    <n v="572"/>
+    <n v="1.4006383872311101E-2"/>
   </r>
   <r>
     <x v="21"/>
     <x v="5"/>
     <x v="1"/>
-    <n v="363"/>
-    <n v="8.0899133900276896E-3"/>
-    <n v="682"/>
-    <n v="1.6031522042884699E-2"/>
-    <n v="430"/>
-    <n v="8.3975748947928298E-3"/>
+    <n v="605"/>
+    <n v="8.9861934304682305E-3"/>
+    <n v="451"/>
+    <n v="1.5653643799020601E-2"/>
+    <n v="198"/>
+    <n v="2.03389671223357E-2"/>
   </r>
   <r>
     <x v="22"/>
     <x v="5"/>
     <x v="2"/>
-    <n v="520"/>
-    <n v="1.51312580686098E-2"/>
-    <n v="458"/>
-    <n v="1.65629820613407E-2"/>
-    <n v="330"/>
-    <n v="2.1340615859916999E-2"/>
+    <n v="451"/>
+    <n v="7.4501998122804003E-3"/>
+    <n v="253"/>
+    <n v="8.3747761673754695E-2"/>
+    <n v="682"/>
+    <n v="1.0429162071936801E-2"/>
   </r>
   <r>
     <x v="23"/>
     <x v="5"/>
     <x v="3"/>
+    <n v="374"/>
+    <n v="1.3592015286195599E-2"/>
     <n v="462"/>
-    <n v="7.2342079696792001E-3"/>
-    <n v="605"/>
-    <n v="2.2361723315266799E-2"/>
-    <n v="275"/>
-    <n v="1.4354779071938901E-2"/>
+    <n v="1.42198830942261E-2"/>
+    <n v="308"/>
+    <n v="2.31338036269003E-2"/>
   </r>
   <r>
     <x v="24"/>
@@ -3727,7 +3729,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:G6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -3959,7 +3961,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -4469,7 +4471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5109,22 +5113,22 @@
         <v>13</v>
       </c>
       <c r="D24">
-        <v>748</v>
+        <v>847</v>
       </c>
       <c r="E24">
-        <v>9.8406430296622705E-3</v>
+        <v>1.0939108222187899E-2</v>
       </c>
       <c r="F24">
-        <v>429</v>
+        <v>693</v>
       </c>
       <c r="G24">
-        <v>1.6803678774162601E-2</v>
+        <v>1.8173032736404401E-2</v>
       </c>
       <c r="H24">
-        <v>649</v>
+        <v>572</v>
       </c>
       <c r="I24">
-        <v>1.21457200121468E-2</v>
+        <v>1.4006383872311101E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -5138,22 +5142,22 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <v>363</v>
+        <v>605</v>
       </c>
       <c r="E25">
-        <v>8.0899133900276896E-3</v>
+        <v>8.9861934304682305E-3</v>
       </c>
       <c r="F25">
-        <v>682</v>
+        <v>451</v>
       </c>
       <c r="G25">
-        <v>1.6031522042884699E-2</v>
+        <v>1.5653643799020601E-2</v>
       </c>
       <c r="H25">
-        <v>430</v>
+        <v>198</v>
       </c>
       <c r="I25">
-        <v>8.3975748947928298E-3</v>
+        <v>2.03389671223357E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5167,22 +5171,22 @@
         <v>16</v>
       </c>
       <c r="D26">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E26">
-        <v>1.51312580686098E-2</v>
+        <v>7.4501998122804003E-3</v>
       </c>
       <c r="F26">
-        <v>458</v>
+        <v>253</v>
       </c>
       <c r="G26">
-        <v>1.65629820613407E-2</v>
+        <v>8.3747761673754695E-2</v>
       </c>
       <c r="H26">
-        <v>330</v>
+        <v>682</v>
       </c>
       <c r="I26">
-        <v>2.1340615859916999E-2</v>
+        <v>1.0429162071936801E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,22 +5200,22 @@
         <v>18</v>
       </c>
       <c r="D27">
+        <v>374</v>
+      </c>
+      <c r="E27">
+        <v>1.3592015286195599E-2</v>
+      </c>
+      <c r="F27">
         <v>462</v>
       </c>
-      <c r="E27">
-        <v>7.2342079696792001E-3</v>
-      </c>
-      <c r="F27">
-        <v>605</v>
-      </c>
       <c r="G27">
-        <v>2.2361723315266799E-2</v>
+        <v>1.42198830942261E-2</v>
       </c>
       <c r="H27">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="I27">
-        <v>1.4354779071938901E-2</v>
+        <v>2.31338036269003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5460,12 +5464,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
@@ -5503,22 +5507,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="4">
-        <v>9.290495836780488E-3</v>
+        <v>1.008522175134504E-2</v>
       </c>
       <c r="C2" s="4">
-        <v>1.7581844659995249E-2</v>
+        <v>1.6564114632365162E-2</v>
       </c>
       <c r="D2" s="4">
-        <v>1.5826369127134112E-2</v>
+        <v>1.6923747196504288E-2</v>
       </c>
       <c r="E2" s="3">
-        <v>246.125</v>
+        <v>235.125</v>
       </c>
       <c r="F2" s="3">
-        <v>272.25</v>
+        <v>254.375</v>
       </c>
       <c r="G2" s="3">
-        <v>200.75</v>
+        <v>204.875</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5526,22 +5530,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="4">
-        <v>9.8756752672722898E-3</v>
+        <v>1.0012983416337993E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>1.8930408272020423E-2</v>
+        <v>1.9101577517300648E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>2.0420236768732222E-2</v>
+        <v>2.0652819751252757E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>368.5</v>
+        <v>380.875</v>
       </c>
       <c r="F3" s="3">
-        <v>335.375</v>
+        <v>368.375</v>
       </c>
       <c r="G3" s="3">
-        <v>357.5</v>
+        <v>347.875</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5549,22 +5553,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="4">
-        <v>9.1388879638618324E-3</v>
+        <v>9.2509229689168998E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>1.6008967247411337E-2</v>
+        <v>1.5961732466928325E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>1.4213639602183178E-2</v>
+        <v>1.5706313630626037E-2</v>
       </c>
       <c r="E4" s="3">
-        <v>225.5</v>
+        <v>255.75</v>
       </c>
       <c r="F4" s="3">
-        <v>295.625</v>
+        <v>266.75</v>
       </c>
       <c r="G4" s="3">
-        <v>210.5</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5572,22 +5576,22 @@
         <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>1.0692370414581955E-2</v>
+        <v>9.7322381325407794E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>1.6516382467618926E-2</v>
+        <v>2.4914479919170673E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>1.5617457507117089E-2</v>
+        <v>1.4253525783619565E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>318</v>
+        <v>309.375</v>
       </c>
       <c r="F5" s="3">
-        <v>291.125</v>
+        <v>265.5</v>
       </c>
       <c r="G5" s="3">
-        <v>220</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5595,22 +5599,22 @@
         <v>61</v>
       </c>
       <c r="B6" s="4">
-        <v>9.7493573706241426E-3</v>
+        <v>9.770341567285179E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>1.7259400661761484E-2</v>
+        <v>1.9135476133941204E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>1.6519425751291651E-2</v>
+        <v>1.6884101590500664E-2</v>
       </c>
       <c r="E6" s="3">
-        <v>289.53125</v>
+        <v>295.28125</v>
       </c>
       <c r="F6" s="3">
-        <v>298.59375</v>
+        <v>288.75</v>
       </c>
       <c r="G6" s="3">
-        <v>247.1875</v>
+        <v>249.5625</v>
       </c>
     </row>
   </sheetData>
@@ -5624,13 +5628,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
@@ -5805,22 +5809,22 @@
         <v>40</v>
       </c>
       <c r="B8" s="4">
-        <v>1.0074005614494739E-2</v>
+        <v>1.0241879187783033E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>1.79399765484137E-2</v>
+        <v>3.2948580325851448E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>1.4059672459698882E-2</v>
+        <v>1.6977079173370976E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>523.25</v>
+        <v>569.25</v>
       </c>
       <c r="F8" s="3">
-        <v>543.5</v>
+        <v>464.75</v>
       </c>
       <c r="G8" s="3">
-        <v>421</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5851,22 +5855,22 @@
         <v>61</v>
       </c>
       <c r="B10" s="4">
-        <v>9.7493573706241426E-3</v>
+        <v>9.7703415672851773E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>1.7259400661761484E-2</v>
+        <v>1.91354761339412E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>1.6519425751291651E-2</v>
+        <v>1.6884101590500668E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>289.53125</v>
+        <v>295.28125</v>
       </c>
       <c r="F10" s="3">
-        <v>298.59375</v>
+        <v>288.75</v>
       </c>
       <c r="G10" s="3">
-        <v>247.1875</v>
+        <v>249.5625</v>
       </c>
     </row>
   </sheetData>
